--- a/数据整理/stocks/A股/上证主板/603882-金域医学.xlsx
+++ b/数据整理/stocks/A股/上证主板/603882-金域医学.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14922,7 +14923,6 @@
           <t>新疆前海联合润丰灵活配置混合C</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
           <t>88.29</t>
@@ -14954,7 +14954,6 @@
           <t>汇添富医药保健混合O</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
           <t>88.20</t>
@@ -14986,7 +14985,6 @@
           <t>九泰天富改革新动力混合C</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
           <t>91.56</t>
@@ -15002,6 +15000,5604 @@
       </c>
       <c r="H185" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H147"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.6596</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8733</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>107.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.8373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>110.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.1423</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7414</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3553</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3544</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3426</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.3305</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>220.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.8610</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.7405</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.6102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>66.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3324</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3053</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0399</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.8923</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8478</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>34.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.7701</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6802</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.6520</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5419</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2654</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2441</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1838</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1500</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0651</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0541</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8473</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>73.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8351</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7944</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7295</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7227</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6846</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6599</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6386</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6109</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6083</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5991</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5661</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4886</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4596</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4489</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3684</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3511</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>67.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2827</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003658</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长盛量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001801</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>52.37</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>73.85</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002165</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>52.37</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>67.52</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008154</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF联接A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>008155</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF联接C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603882-金域医学.xlsx
+++ b/数据整理/stocks/A股/上证主板/603882-金域医学.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20603,4 +20604,2454 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5537</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4730</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2298</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6939</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4994</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4605</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3292</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1301</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0987</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0240</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9988</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9865</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9734</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8521</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7965</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6903</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>42.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6110</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5618</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5292</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4093</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4009</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3419</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2947</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011923</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000512</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012326</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012327</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011926</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603882-金域医学.xlsx
+++ b/数据整理/stocks/A股/上证主板/603882-金域医学.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23054,4 +23055,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>146</v>
+      </c>
+      <c r="D3" t="n">
+        <v>101.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>184</v>
+      </c>
+      <c r="D4" t="n">
+        <v>58.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>197</v>
+      </c>
+      <c r="D5" t="n">
+        <v>47.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603882-金域医学.xlsx
+++ b/数据整理/stocks/A股/上证主板/603882-金域医学.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23063,7 +23064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23074,17 +23075,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -23094,14 +23115,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.57</v>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7706</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -23110,14 +23153,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>146</v>
-      </c>
-      <c r="D3" t="n">
-        <v>101.94</v>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -23126,14 +23191,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>184</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58.83</v>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>140.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2910</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -23142,13 +23229,3039 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0925</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4261</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1083</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6882</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6344</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4864</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3284</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2309</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2184</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2097</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1540</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0729</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0707</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>33.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0564</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9194</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8977</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8654</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7796</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6651</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6131</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6121</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5592</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5514</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5490</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4915</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3606</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3205</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2674</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011923</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>76.89</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011926</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>146</v>
+      </c>
+      <c r="D4" t="n">
+        <v>101.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>184</v>
+      </c>
+      <c r="D5" t="n">
+        <v>58.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>197</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>47.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603882-金域医学.xlsx
+++ b/数据整理/stocks/A股/上证主板/603882-金域医学.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26160,7 +26161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26171,17 +26172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -26191,14 +26212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>80</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.26</v>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9035</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -26207,14 +26250,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.57</v>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -26223,14 +26288,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>146</v>
-      </c>
-      <c r="D4" t="n">
-        <v>101.94</v>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -26239,14 +26326,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>184</v>
-      </c>
-      <c r="D5" t="n">
-        <v>58.83</v>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6542</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -26255,13 +26364,1269 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4547</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4346</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9492</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9377</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7591</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7084</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6127</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5757</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3532</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>146</v>
+      </c>
+      <c r="D5" t="n">
+        <v>101.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>184</v>
+      </c>
+      <c r="D6" t="n">
+        <v>58.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>197</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>47.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603882-金域医学.xlsx
+++ b/数据整理/stocks/A股/上证主板/603882-金域医学.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27509,7 +27510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27520,17 +27521,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -27540,14 +27561,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.15</v>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -27556,14 +27599,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50.26</v>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7452</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -27572,14 +27637,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>63</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.57</v>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1449</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -27588,14 +27675,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>146</v>
-      </c>
-      <c r="D5" t="n">
-        <v>101.94</v>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1534</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -27604,14 +27713,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>184</v>
-      </c>
-      <c r="D6" t="n">
-        <v>58.83</v>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -27620,13 +27751,1779 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5418</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3915</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014046</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3915</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0224</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9427</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7963</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7532</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6812</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6440</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6293</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5556</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4528</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3852</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013882</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2508</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2341</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>61.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013885</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014080</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>63</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>146</v>
+      </c>
+      <c r="D6" t="n">
+        <v>101.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>184</v>
+      </c>
+      <c r="D7" t="n">
+        <v>58.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>197</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>47.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603882-金域医学.xlsx
+++ b/数据整理/stocks/A股/上证主板/603882-金域医学.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>30.72</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>21.15</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>50.26</v>
+        <v>21.15</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>32.57</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
-        <v>101.94</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="D7" t="n">
-        <v>58.83</v>
+        <v>101.94</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>184</v>
+      </c>
+      <c r="D8" t="n">
+        <v>58.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>197</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>47.95</v>
       </c>
     </row>
@@ -600,6 +617,1996 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0277</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9639</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1630</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0498</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3359</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0984</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0979</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5418</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5410</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5228</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4985</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4909</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013882</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4466</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4177</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014046</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014121</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516790</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005626</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159797</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014122</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014080</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015655</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014821</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015656</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>016060</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2479,7 +4486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3827,7 +5834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6923,7 +8930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9373,7 +11380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14971,7 +16978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21998,7 +24005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
